--- a/Luban/ExcelConfig/Datas/ability_upgrade.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_upgrade.xlsx
@@ -83,7 +83,7 @@
     <t>list,numeric.AttachValueInfo</t>
   </si>
   <si>
-    <t>(list#sep=;),procedureline.WorkerInfo</t>
+    <t>(list#sep=;),procedureline.WorkerInfo#sep=,</t>
   </si>
   <si>
     <t>type</t>
@@ -137,7 +137,7 @@
     <t>劈砍</t>
   </si>
   <si>
-    <t>概率重复施法`0.5</t>
+    <t>概率重复施法,0.5</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1145,8 @@
     <col min="33" max="33" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="34" max="34" width="5.83333333333333" style="2" customWidth="1"/>
     <col min="35" max="35" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="36" max="36" width="35.1666666666667" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="36" max="37" width="39.4166666666667" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:36">
@@ -1460,7 +1460,6 @@
       <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="AJ10" s="2" t="s">
         <v>36</v>
       </c>

--- a/Luban/ExcelConfig/Datas/ability_upgrade.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_upgrade.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -35,34 +35,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>view_name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>target_ability</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>mana_cost</t>
-  </si>
-  <si>
-    <t>detect_range</t>
-  </si>
-  <si>
-    <t>numeric_nodes</t>
-  </si>
-  <si>
-    <t>*affixes</t>
+    <t>patch</t>
   </si>
   <si>
     <t>##type</t>
@@ -74,31 +50,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>(list#sep=;),TagType</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>list,numeric.AttachValueInfo</t>
-  </si>
-  <si>
-    <t>(list#sep=;),procedureline.WorkerInfo#sep=,</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>sign</t>
+    <t>int#ref=ability.TbAbilityPatchConfig</t>
   </si>
   <si>
     <t>##group</t>
@@ -110,34 +62,10 @@
     <t>这是ID</t>
   </si>
   <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>目标技能</t>
   </si>
   <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>附加的数值</t>
-  </si>
-  <si>
-    <t>升级1</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
     <t>劈砍</t>
-  </si>
-  <si>
-    <t>概率重复施法,0.5</t>
   </si>
 </sst>
 </file>
@@ -759,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -768,16 +696,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1098,58 +1023,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ83"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ11" sqref="AJ11"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.16666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.16666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.58333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.0833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="32" max="32" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="33" max="33" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="34" max="34" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="35" max="35" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="36" max="37" width="39.4166666666667" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="12.5833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.1666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.0833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="29" max="29" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="32" max="33" width="39.4166666666667" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:36">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,244 +1083,58 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:36">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:35">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5">
-        <v>2</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:35">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
@@ -1408,108 +1143,79 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32">
       <c r="B10" s="2">
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="21:21">
-      <c r="U27" s="6"/>
-    </row>
-    <row r="32" spans="21:21">
-      <c r="U32" s="6"/>
-    </row>
-    <row r="37" spans="21:21">
-      <c r="U37" s="6"/>
-    </row>
-    <row r="42" spans="21:21">
-      <c r="U42" s="6"/>
-    </row>
-    <row r="47" spans="21:21">
-      <c r="U47" s="6"/>
-    </row>
-    <row r="52" spans="21:21">
-      <c r="U52" s="6"/>
-    </row>
-    <row r="57" spans="21:21">
-      <c r="U57" s="6"/>
-    </row>
-    <row r="61" spans="21:21">
-      <c r="U61" s="6"/>
-    </row>
-    <row r="65" spans="21:21">
-      <c r="U65" s="6"/>
-    </row>
-    <row r="71" spans="21:21">
-      <c r="U71" s="6"/>
-    </row>
-    <row r="77" spans="21:21">
-      <c r="U77" s="6"/>
-    </row>
-    <row r="83" spans="21:21">
-      <c r="U83" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10200</v>
+      </c>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="27" spans="17:17">
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="32" spans="17:17">
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="37" spans="17:17">
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="42" spans="17:17">
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="47" spans="17:17">
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="52" spans="17:17">
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="57" spans="17:17">
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="61" spans="17:17">
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="65" spans="17:17">
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K1:AI1"/>
-    <mergeCell ref="K2:AI2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
